--- a/Hospital Plan.xlsx
+++ b/Hospital Plan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gyokhan\Desktop\Digital Razgrad Projects\hospital_tes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gyokhan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
   <si>
     <t>Клас Пациенти</t>
   </si>
@@ -162,13 +162,19 @@
   </si>
   <si>
     <t>-взима се името, намира се id от клас Лекари и с id се намират всички пациенти от клас записани часове</t>
+  </si>
+  <si>
+    <t>*Визуализацията може да е в интерфейс с метод visualisable, който да се пренаписва за доктор/пациент</t>
+  </si>
+  <si>
+    <t>*Може да се изнесат в интерфейси сортирането и групирането</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,6 +186,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="8" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -330,7 +344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -366,6 +380,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -648,8 +663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="C8" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -889,6 +904,9 @@
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
       <c r="E26" s="15"/>
+      <c r="G26" s="27" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
@@ -897,6 +915,9 @@
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="E27" s="9"/>
+      <c r="G27" s="27" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="28" spans="2:11" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="20" t="s">
